--- a/吉田学園情報ビジネス専門学校_西潟栞那汰/03_履歴書/23_西潟栞那汰_履歴書.xlsx
+++ b/吉田学園情報ビジネス専門学校_西潟栞那汰/03_履歴書/23_西潟栞那汰_履歴書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsp026\Desktop\吉田学園情報ビジネス専門学校_西潟栞那汰\03_履歴書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsp026\Desktop\就職関連\吉田学園情報ビジネス専門学校_西潟栞那汰\03_履歴書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>年</t>
   </si>
@@ -322,57 +322,90 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>数あるゲーム会社の中でも貴社への就職を希望しているのは、貴社の企業理念に共感し</t>
-    <rPh sb="0" eb="1">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガイシャ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
+    <t>貴社への就職が叶ったあかつきには、積極的に技術を向上させ、貢献していきたいと</t>
+    <rPh sb="0" eb="2">
       <t>キシャ</t>
     </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="4" eb="6">
       <t>シュウショク</t>
     </rPh>
+    <rPh sb="7" eb="8">
+      <t>カナ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>セッキョクテキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>思います。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>「バイオハザードシリーズ」に感動を受けたため希望しました。</t>
+    <rPh sb="22" eb="24">
+      <t>キボウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>と思い、専門学校へ入学しC言語とC++言語を主軸として学んできました。</t>
+    <rPh sb="1" eb="2">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゲンゴ</t>
+    </rPh>
     <rPh sb="19" eb="21">
-      <t>キボウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュジク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>マナ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>貴社の「人々に感動を与える感性開発」という部分に感銘を受け、私自身貴社の</t>
+    <rPh sb="0" eb="2">
       <t>キシャ</t>
     </rPh>
-    <rPh sb="31" eb="33">
-      <t>キギョウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>リネン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>キョウカン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>私自身貴社のタイトルに感動を受けたためです。</t>
-    <rPh sb="0" eb="3">
-      <t>ワタシジシン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キシャ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
+    <rPh sb="4" eb="6">
+      <t>ヒトビト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>カンドウ</t>
     </rPh>
-    <rPh sb="14" eb="15">
+    <rPh sb="10" eb="11">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カンメイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
       <t>ウ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>それ以来私も制作をする側となり、ゲームをプレイしていただいた方に感動を広げたいと思い、</t>
+    <t>それ以来私も制作をする側となり、ゲームをプレイしていただいた方に感動を与えたい</t>
     <rPh sb="2" eb="4">
       <t>イライ</t>
     </rPh>
@@ -392,62 +425,31 @@
       <t>カンドウ</t>
     </rPh>
     <rPh sb="35" eb="36">
-      <t>ヒロ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>専門学校へ入学し今まで勉強してきました。</t>
-    <rPh sb="0" eb="2">
-      <t>センモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガッコウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウガク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ベンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>貴社への就職が叶ったあかつきには、積極的に技術を向上させ、</t>
-    <rPh sb="0" eb="2">
-      <t>キシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュウショク</t>
-    </rPh>
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>それによって、私は作品で再びプレイしてしまいたくなるような感動を与えることが</t>
     <rPh sb="7" eb="8">
-      <t>カナ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>セッキョクテキ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ギジュツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>コウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>貢献していきたいと思います。</t>
-    <rPh sb="0" eb="2">
-      <t>コウケン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オモ</t>
-    </rPh>
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>フタタ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カンドウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>できます。</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -455,7 +457,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -545,6 +547,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1736,6 +1744,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1756,6 +1788,57 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1768,87 +1851,12 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2884,7 +2892,7 @@
   <dimension ref="B1:L31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:L29"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2907,122 +2915,122 @@
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="123"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="121"/>
     </row>
     <row r="3" spans="2:12" ht="26.1" customHeight="1">
       <c r="B3" s="21"/>
       <c r="C3" s="22"/>
-      <c r="D3" s="124" t="s">
+      <c r="D3" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="125"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="123"/>
     </row>
     <row r="4" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
       <c r="B4" s="21"/>
       <c r="C4" s="22"/>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="118"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="124"/>
     </row>
     <row r="5" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="118"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="124"/>
     </row>
     <row r="6" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
       <c r="B6" s="21"/>
       <c r="C6" s="22"/>
-      <c r="D6" s="124" t="s">
+      <c r="D6" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="118"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
       <c r="B7" s="21"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="124" t="s">
+      <c r="D7" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
-      <c r="L7" s="118"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="124"/>
     </row>
     <row r="8" spans="2:12" ht="26.1" customHeight="1">
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
-      <c r="D8" s="124" t="s">
+      <c r="D8" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="118"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="124"/>
     </row>
     <row r="9" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
       <c r="B9" s="21"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="124" t="s">
+      <c r="D9" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="118"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="124"/>
     </row>
     <row r="10" spans="2:12" ht="12" customHeight="1" thickBot="1">
       <c r="B10" s="23"/>
@@ -3038,7 +3046,7 @@
       <c r="L10" s="23"/>
     </row>
     <row r="11" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="133" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="45"/>
@@ -3050,121 +3058,121 @@
       <c r="I11" s="45"/>
       <c r="J11" s="45"/>
       <c r="K11" s="45"/>
-      <c r="L11" s="120"/>
+      <c r="L11" s="134"/>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="115"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="127"/>
     </row>
     <row r="13" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B13" s="116"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="118"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="124"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="115"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="127"/>
     </row>
     <row r="15" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B15" s="116"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="118"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="124"/>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B16" s="113" t="s">
+      <c r="B16" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="115"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="127"/>
     </row>
     <row r="17" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B17" s="116"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="118"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="124"/>
     </row>
     <row r="18" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="115"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="126"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="127"/>
     </row>
     <row r="19" spans="2:12" ht="32.1" customHeight="1" thickBot="1">
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="112"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="131"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="132"/>
     </row>
     <row r="20" spans="2:12" ht="12" customHeight="1" thickBot="1">
       <c r="B20" s="23"/>
@@ -3180,174 +3188,181 @@
       <c r="L20" s="23"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="107" t="s">
+      <c r="F21" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="109"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="115"/>
     </row>
     <row r="22" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B22" s="126" t="s">
+      <c r="B22" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="128"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="118"/>
     </row>
     <row r="23" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B23" s="129" t="s">
+      <c r="B23" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="107"/>
+    </row>
+    <row r="24" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B24" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="107"/>
+    </row>
+    <row r="25" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B25" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="107"/>
+    </row>
+    <row r="26" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B26" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="107"/>
+    </row>
+    <row r="27" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B27" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="107"/>
+    </row>
+    <row r="28" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B28" s="105" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="107"/>
+    </row>
+    <row r="29" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B29" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="131"/>
-    </row>
-    <row r="24" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B24" s="129" t="s">
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="107"/>
+    </row>
+    <row r="30" spans="2:12" ht="26.1" customHeight="1">
+      <c r="B30" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="130"/>
-      <c r="L24" s="131"/>
-    </row>
-    <row r="25" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B25" s="129" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="130"/>
-      <c r="L25" s="131"/>
-    </row>
-    <row r="26" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B26" s="129" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="130"/>
-      <c r="L26" s="131"/>
-    </row>
-    <row r="27" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B27" s="129" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="130"/>
-      <c r="L27" s="131"/>
-    </row>
-    <row r="28" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B28" s="129" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="131"/>
-    </row>
-    <row r="29" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B29" s="129"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="131"/>
-    </row>
-    <row r="30" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B30" s="129"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="131"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="107"/>
     </row>
     <row r="31" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B31" s="132"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="133"/>
-      <c r="K31" s="133"/>
-      <c r="L31" s="134"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B19:L19"/>
     <mergeCell ref="B11:L11"/>
     <mergeCell ref="B12:L12"/>
     <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:L15"/>
     <mergeCell ref="D2:L2"/>
     <mergeCell ref="D3:L3"/>
     <mergeCell ref="D8:L8"/>
@@ -3356,21 +3371,18 @@
     <mergeCell ref="D5:L5"/>
     <mergeCell ref="D7:L7"/>
     <mergeCell ref="D6:L6"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="B27:L27"/>
     <mergeCell ref="B29:L29"/>
     <mergeCell ref="B30:L30"/>
     <mergeCell ref="B31:L31"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="F21:L21"/>
-    <mergeCell ref="B19:L19"/>
     <mergeCell ref="B22:L22"/>
     <mergeCell ref="B23:L23"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="B24:L24"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/吉田学園情報ビジネス専門学校_西潟栞那汰/03_履歴書/23_西潟栞那汰_履歴書.xlsx
+++ b/吉田学園情報ビジネス専門学校_西潟栞那汰/03_履歴書/23_西潟栞那汰_履歴書.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
   <si>
     <t>年</t>
   </si>
@@ -174,14 +174,6 @@
   </si>
   <si>
     <t>〒</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>　</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -306,150 +298,459 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>私はプログラマーとしてゲームの制作に携わりたいと考えています。</t>
+    <t>平成28</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>平成31</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>吉田学園情報ビジネス専門学校　入学</t>
+    <rPh sb="0" eb="6">
+      <t>ヨシダガクエンジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>センモンガッコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウガク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>学歴</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>令和4</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>吉田学園情報ビジネス専門学校　卒業見込み</t>
+    <rPh sb="0" eb="6">
+      <t>ヨシダガクエンジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>センモンガッコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソツギョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ミコ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>職歴</t>
+    <rPh sb="0" eb="2">
+      <t>ショクレキ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>免許・資格</t>
+    <rPh sb="0" eb="2">
+      <t>メンキョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>日本語ワープロ検定試験3級　取得</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>平成29</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>パソコンスピード認定試験2級　取得</t>
+    <rPh sb="8" eb="10">
+      <t>ニンテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>令和元</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">普通自動車第一種運転免許　取得 </t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジドウシャ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ダイイッシュ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ウンテン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>メンキョ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>インターネットベーシックユーザーテストダイヤモンド認定　取得</t>
+    <rPh sb="25" eb="27">
+      <t>ニンテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>令和2</t>
+    <rPh sb="0" eb="2">
+      <t>レイワ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Excel表計算処理技能認定試験3級　取得</t>
+    <rPh sb="5" eb="8">
+      <t>ヒョウケイサン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ギノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>以上</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>数学・物理</t>
+    <rPh sb="0" eb="2">
+      <t>スウガク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブツリ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Ｊｏ：Ｂｉキャラバン、ハッカソン</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>優柔不断で深く考え、最適解を導き出そうとするところ</t>
+    <rPh sb="0" eb="2">
+      <t>ユウジュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フダン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイテキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミチビ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>北海道立札幌平岡高等学校　入学</t>
+    <rPh sb="0" eb="2">
+      <t>ホッカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウリツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サッポロ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒラオカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウトウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウガク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>北海道立札幌平岡高等学校　卒業</t>
+    <rPh sb="0" eb="3">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サッポロ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒラオカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウトウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソツギョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>貴社への就職が叶ったあかつきには、積極的に技術を向上させ、私の体験した恐怖や</t>
+    <rPh sb="0" eb="2">
+      <t>キシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウショク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カナ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>セッキョクテキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウジョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>タイケン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キョウフ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>感動を表現できるよう、貢献していきたいと思います。</t>
+    <rPh sb="0" eb="2">
+      <t>カンドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウケン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>そのため私は、制作する側になりたいと思い専門学校へ入学しました。</t>
+    <rPh sb="4" eb="5">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>学校ではC言語、C++言語を中心に学び、DirectXでのゲーム制作を行ってきました。</t>
+    <rPh sb="5" eb="7">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>また、チーム制作では、チームリーダーとしてメンバーを支え、メインプログラマー</t>
+    <rPh sb="6" eb="8">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ササ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>として制作の土台を作成しました。</t>
+    <rPh sb="3" eb="5">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>私は、感情や感動をゲームによって提供できるようなプログラマーになりたいと考えて</t>
     <rPh sb="0" eb="1">
       <t>ワタシ</t>
     </rPh>
-    <rPh sb="15" eb="17">
-      <t>セイサク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>タズサ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
+    <rPh sb="36" eb="37">
       <t>カンガ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>貴社への就職が叶ったあかつきには、積極的に技術を向上させ、貢献していきたいと</t>
+    <t>いたため、貴社を志望しました。</t>
+    <rPh sb="5" eb="7">
+      <t>キシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>実際に貴社の「バイオハザードシリーズ」をプレイし、初めてゲームで恐怖という感情を</t>
     <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
       <t>キシャ</t>
     </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュウショク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カナ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>セッキョクテキ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ギジュツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>コウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>思います。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>「バイオハザードシリーズ」に感動を受けたため希望しました。</t>
-    <rPh sb="22" eb="24">
-      <t>キボウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>と思い、専門学校へ入学しC言語とC++言語を主軸として学んできました。</t>
-    <rPh sb="1" eb="2">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ゲンゴ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ゲンゴ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シュジク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>マナ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>貴社の「人々に感動を与える感性開発」という部分に感銘を受け、私自身貴社の</t>
-    <rPh sb="0" eb="2">
-      <t>キシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒトビト</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンドウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
+    <rPh sb="25" eb="26">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キョウフ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カンジョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>与えられました。さらに、恐怖しながらも進めてしまう面白さに感動しました。</t>
+    <rPh sb="0" eb="1">
       <t>アタ</t>
     </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カンメイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>それ以来私も制作をする側となり、ゲームをプレイしていただいた方に感動を与えたい</t>
-    <rPh sb="2" eb="4">
-      <t>イライ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイサク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>カンドウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>アタ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>それによって、私は作品で再びプレイしてしまいたくなるような感動を与えることが</t>
-    <rPh sb="7" eb="8">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクヒン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>フタタ</t>
+    <rPh sb="12" eb="14">
+      <t>キョウフ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>オモシロ</t>
     </rPh>
     <rPh sb="29" eb="31">
       <t>カンドウ</t>
     </rPh>
-    <rPh sb="32" eb="33">
-      <t>アタ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>できます。</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -562,7 +863,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1137,6 +1438,171 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1165,184 +1631,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1351,11 +1639,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
@@ -1447,11 +1732,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1466,15 +1751,45 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1490,15 +1805,15 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyProtection="1">
@@ -1744,6 +2059,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1756,19 +2083,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1776,7 +2091,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1784,19 +2099,19 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1857,6 +2172,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2165,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14:Q14"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2182,652 +2513,700 @@
   <sheetData>
     <row r="1" spans="2:17" ht="13.5" customHeight="1"/>
     <row r="2" spans="2:17" ht="19.5" customHeight="1">
-      <c r="P2" s="74" t="s">
+      <c r="P2" s="81" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="17.100000000000001" customHeight="1">
+      <c r="B3" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="P3" s="82"/>
+    </row>
+    <row r="4" spans="2:17" ht="14.45" customHeight="1" thickBot="1">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="82"/>
+    </row>
+    <row r="5" spans="2:17" ht="16.5" customHeight="1">
+      <c r="B5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="90"/>
+      <c r="P5" s="82"/>
+    </row>
+    <row r="6" spans="2:17" ht="13.5" customHeight="1">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="93"/>
+      <c r="P6" s="82"/>
+    </row>
+    <row r="7" spans="2:17" ht="23.45" customHeight="1">
+      <c r="B7" s="1"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="95"/>
+      <c r="P7" s="82"/>
+    </row>
+    <row r="8" spans="2:17" ht="16.5" customHeight="1">
+      <c r="B8" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="97"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="102">
+        <v>1</v>
+      </c>
+      <c r="F8" s="104" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="2:17" ht="17.100000000000001" customHeight="1">
-      <c r="B3" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="P3" s="75"/>
-    </row>
-    <row r="4" spans="2:17" ht="14.45" customHeight="1" thickBot="1">
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="75"/>
-    </row>
-    <row r="5" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B5" s="12" t="s">
+      <c r="G8" s="102">
+        <v>6</v>
+      </c>
+      <c r="H8" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="109">
+        <v>20</v>
+      </c>
+      <c r="M8" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="82"/>
+    </row>
+    <row r="9" spans="2:17" ht="14.1" customHeight="1" thickBot="1">
+      <c r="B9" s="98"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="111"/>
+    </row>
+    <row r="10" spans="2:17" ht="16.5" customHeight="1">
+      <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C10" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="79"/>
+    </row>
+    <row r="11" spans="2:17" ht="16.5" customHeight="1">
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="83"/>
-      <c r="P5" s="75"/>
-    </row>
-    <row r="6" spans="2:17" ht="13.5" customHeight="1">
-      <c r="B6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="86"/>
-      <c r="P6" s="75"/>
-    </row>
-    <row r="7" spans="2:17" ht="23.45" customHeight="1">
-      <c r="B7" s="2"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="88"/>
-      <c r="P7" s="75"/>
-    </row>
-    <row r="8" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B8" s="89" t="s">
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="72"/>
+    </row>
+    <row r="12" spans="2:17" ht="16.5" customHeight="1">
+      <c r="B12" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="95">
-        <v>1</v>
-      </c>
-      <c r="F8" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="95">
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="63"/>
+    </row>
+    <row r="13" spans="2:17" ht="16.5" customHeight="1">
+      <c r="B13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="72"/>
+    </row>
+    <row r="14" spans="2:17" ht="16.5" customHeight="1">
+      <c r="B14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="63"/>
+    </row>
+    <row r="15" spans="2:17" ht="16.5" customHeight="1">
+      <c r="B15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="102">
-        <v>20</v>
-      </c>
-      <c r="M8" s="95" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="103" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="75"/>
-    </row>
-    <row r="9" spans="2:17" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B9" s="91"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="104"/>
-    </row>
-    <row r="10" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="72"/>
-    </row>
-    <row r="11" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="65"/>
-    </row>
-    <row r="12" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B12" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="56"/>
-    </row>
-    <row r="13" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="65"/>
-    </row>
-    <row r="14" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B14" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="56"/>
-    </row>
-    <row r="15" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="53"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="60"/>
     </row>
     <row r="16" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B16" s="54"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="56"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="63"/>
     </row>
     <row r="17" spans="2:17" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="43"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="50"/>
     </row>
     <row r="18" spans="2:17" ht="12" customHeight="1" thickBot="1"/>
     <row r="19" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="46"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="53"/>
     </row>
     <row r="20" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="29"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="39"/>
     </row>
     <row r="21" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="29"/>
+      <c r="B21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="10">
+        <v>4</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="33"/>
     </row>
     <row r="22" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="29"/>
+      <c r="B22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="10">
+        <v>3</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="29"/>
+      <c r="B23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="10">
+        <v>4</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="28"/>
     </row>
     <row r="24" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="29"/>
+      <c r="B24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="10">
+        <v>3</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="29"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="29"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="39"/>
     </row>
     <row r="27" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="29"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="33"/>
     </row>
     <row r="28" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="29"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="33"/>
     </row>
     <row r="29" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="29"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="39"/>
     </row>
     <row r="30" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B30" s="18"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="29"/>
+      <c r="B30" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="10">
+        <v>10</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="33"/>
     </row>
     <row r="31" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="35"/>
+      <c r="B31" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="19">
+        <v>10</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="42"/>
     </row>
     <row r="32" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="10">
+        <v>5</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="45"/>
+    </row>
+    <row r="33" spans="2:17" ht="26.1" customHeight="1">
+      <c r="B33" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="10">
+        <v>9</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="33"/>
+    </row>
+    <row r="34" spans="2:17" ht="26.1" customHeight="1">
+      <c r="B34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="10">
+        <v>2</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="33"/>
+    </row>
+    <row r="35" spans="2:17" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B35" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C35" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="38"/>
-    </row>
-    <row r="33" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="29"/>
-    </row>
-    <row r="34" spans="2:17" ht="26.1" customHeight="1">
-      <c r="B34" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="29"/>
-    </row>
-    <row r="35" spans="2:17" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B35" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="32"/>
+      <c r="D35" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="49">
     <mergeCell ref="P2:P8"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="G4:H4"/>
@@ -2859,16 +3238,15 @@
     <mergeCell ref="O15:Q15"/>
     <mergeCell ref="B16:N16"/>
     <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="D25:Q25"/>
+    <mergeCell ref="D26:Q26"/>
     <mergeCell ref="B17:N17"/>
     <mergeCell ref="O17:Q17"/>
     <mergeCell ref="D19:Q19"/>
     <mergeCell ref="D20:Q20"/>
     <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D23:Q23"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="D25:Q25"/>
-    <mergeCell ref="D26:Q26"/>
     <mergeCell ref="D33:Q33"/>
     <mergeCell ref="D34:Q34"/>
     <mergeCell ref="D35:Q35"/>
@@ -2889,10 +3267,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L31"/>
+  <dimension ref="B1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2909,451 +3287,594 @@
   <sheetData>
     <row r="1" spans="2:12" ht="13.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="121"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="128"/>
     </row>
     <row r="3" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="122" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="123"/>
-    </row>
-    <row r="4" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="122" t="s">
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="130"/>
+    </row>
+    <row r="4" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="124"/>
-    </row>
-    <row r="5" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="122" t="s">
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="131"/>
+    </row>
+    <row r="5" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="124"/>
-    </row>
-    <row r="6" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="122" t="s">
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="131"/>
+    </row>
+    <row r="6" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="124"/>
-    </row>
-    <row r="7" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="122" t="s">
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="131"/>
+    </row>
+    <row r="7" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="124"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="131"/>
     </row>
     <row r="8" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="122" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="124"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="131"/>
     </row>
     <row r="9" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="122" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="124"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="131"/>
     </row>
     <row r="10" spans="2:12" ht="12" customHeight="1" thickBot="1">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="134"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="141"/>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="127"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="134"/>
     </row>
     <row r="13" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B13" s="128"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="124"/>
+      <c r="B13" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="131"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B14" s="125" t="s">
+      <c r="B14" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="127"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="134"/>
     </row>
     <row r="15" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B15" s="128"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="124"/>
+      <c r="B15" s="135" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="131"/>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="127"/>
-    </row>
-    <row r="17" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B17" s="128"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="124"/>
-    </row>
-    <row r="18" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B18" s="125" t="s">
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="134"/>
+    </row>
+    <row r="17" spans="2:24" ht="32.1" customHeight="1">
+      <c r="B17" s="135" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="131"/>
+    </row>
+    <row r="18" spans="2:24" ht="16.5" customHeight="1">
+      <c r="B18" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="126"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="127"/>
-    </row>
-    <row r="19" spans="2:12" ht="32.1" customHeight="1" thickBot="1">
-      <c r="B19" s="130" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="132"/>
-    </row>
-    <row r="20" spans="2:12" ht="12" customHeight="1" thickBot="1">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-    </row>
-    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B21" s="111" t="s">
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="134"/>
+    </row>
+    <row r="19" spans="2:24" ht="32.1" customHeight="1" thickBot="1">
+      <c r="B19" s="137" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="139"/>
+    </row>
+    <row r="20" spans="2:24" ht="12" customHeight="1" thickBot="1">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B21" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="113" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="115"/>
-    </row>
-    <row r="22" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B22" s="116" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="117"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="118"/>
-    </row>
-    <row r="23" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B23" s="105" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="107"/>
-    </row>
-    <row r="24" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B24" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="107"/>
-    </row>
-    <row r="25" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B25" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="107"/>
-    </row>
-    <row r="26" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B26" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="107"/>
-    </row>
-    <row r="27" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B27" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="107"/>
-    </row>
-    <row r="28" spans="2:12" s="24" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B28" s="105" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="107"/>
-    </row>
-    <row r="29" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B29" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="107"/>
-    </row>
-    <row r="30" spans="2:12" ht="26.1" customHeight="1">
-      <c r="B30" s="105" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="107"/>
-    </row>
-    <row r="31" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B31" s="108"/>
-      <c r="C31" s="109"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="110"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="120" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="122"/>
+    </row>
+    <row r="22" spans="2:24" ht="26.1" customHeight="1">
+      <c r="B22" s="123" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="125"/>
+      <c r="N22" s="142"/>
+      <c r="O22" s="142"/>
+      <c r="P22" s="142"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="143"/>
+      <c r="S22" s="144"/>
+      <c r="T22" s="144"/>
+      <c r="U22" s="144"/>
+      <c r="V22" s="144"/>
+      <c r="W22" s="144"/>
+      <c r="X22" s="144"/>
+    </row>
+    <row r="23" spans="2:24" ht="26.1" customHeight="1">
+      <c r="B23" s="112" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="114"/>
+      <c r="N23" s="145"/>
+      <c r="O23" s="145"/>
+      <c r="P23" s="145"/>
+      <c r="Q23" s="145"/>
+      <c r="R23" s="145"/>
+      <c r="S23" s="145"/>
+      <c r="T23" s="145"/>
+      <c r="U23" s="145"/>
+      <c r="V23" s="145"/>
+      <c r="W23" s="145"/>
+      <c r="X23" s="145"/>
+    </row>
+    <row r="24" spans="2:24" s="23" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B24" s="112" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="114"/>
+      <c r="N24" s="145"/>
+      <c r="O24" s="145"/>
+      <c r="P24" s="145"/>
+      <c r="Q24" s="145"/>
+      <c r="R24" s="145"/>
+      <c r="S24" s="145"/>
+      <c r="T24" s="145"/>
+      <c r="U24" s="145"/>
+      <c r="V24" s="145"/>
+      <c r="W24" s="145"/>
+      <c r="X24" s="145"/>
+    </row>
+    <row r="25" spans="2:24" s="23" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B25" s="112" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="114"/>
+      <c r="N25" s="145"/>
+      <c r="O25" s="145"/>
+      <c r="P25" s="145"/>
+      <c r="Q25" s="145"/>
+      <c r="R25" s="145"/>
+      <c r="S25" s="145"/>
+      <c r="T25" s="145"/>
+      <c r="U25" s="145"/>
+      <c r="V25" s="145"/>
+      <c r="W25" s="145"/>
+      <c r="X25" s="145"/>
+    </row>
+    <row r="26" spans="2:24" ht="26.1" customHeight="1">
+      <c r="B26" s="112" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="114"/>
+      <c r="N26" s="145"/>
+      <c r="O26" s="145"/>
+      <c r="P26" s="145"/>
+      <c r="Q26" s="145"/>
+      <c r="R26" s="145"/>
+      <c r="S26" s="145"/>
+      <c r="T26" s="145"/>
+      <c r="U26" s="145"/>
+      <c r="V26" s="145"/>
+      <c r="W26" s="145"/>
+      <c r="X26" s="145"/>
+    </row>
+    <row r="27" spans="2:24" ht="26.1" customHeight="1">
+      <c r="B27" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="114"/>
+      <c r="N27" s="145"/>
+      <c r="O27" s="145"/>
+      <c r="P27" s="145"/>
+      <c r="Q27" s="145"/>
+      <c r="R27" s="145"/>
+      <c r="S27" s="145"/>
+      <c r="T27" s="145"/>
+      <c r="U27" s="145"/>
+      <c r="V27" s="145"/>
+      <c r="W27" s="145"/>
+      <c r="X27" s="145"/>
+    </row>
+    <row r="28" spans="2:24" s="23" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B28" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="114"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="145"/>
+      <c r="Q28" s="145"/>
+      <c r="R28" s="145"/>
+      <c r="S28" s="145"/>
+      <c r="T28" s="145"/>
+      <c r="U28" s="145"/>
+      <c r="V28" s="145"/>
+      <c r="W28" s="145"/>
+      <c r="X28" s="145"/>
+    </row>
+    <row r="29" spans="2:24" ht="26.1" customHeight="1">
+      <c r="B29" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="114"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="145"/>
+      <c r="P29" s="145"/>
+      <c r="Q29" s="145"/>
+      <c r="R29" s="145"/>
+      <c r="S29" s="145"/>
+      <c r="T29" s="145"/>
+      <c r="U29" s="145"/>
+      <c r="V29" s="145"/>
+      <c r="W29" s="145"/>
+      <c r="X29" s="145"/>
+    </row>
+    <row r="30" spans="2:24" ht="26.1" customHeight="1">
+      <c r="B30" s="112" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="114"/>
+      <c r="N30" s="145"/>
+      <c r="O30" s="145"/>
+      <c r="P30" s="145"/>
+      <c r="Q30" s="145"/>
+      <c r="R30" s="145"/>
+      <c r="S30" s="145"/>
+      <c r="T30" s="145"/>
+      <c r="U30" s="145"/>
+      <c r="V30" s="145"/>
+      <c r="W30" s="145"/>
+      <c r="X30" s="145"/>
+    </row>
+    <row r="31" spans="2:24" ht="26.1" customHeight="1" thickBot="1">
+      <c r="B31" s="115" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="117"/>
+      <c r="N31" s="145"/>
+      <c r="O31" s="145"/>
+      <c r="P31" s="145"/>
+      <c r="Q31" s="145"/>
+      <c r="R31" s="145"/>
+      <c r="S31" s="145"/>
+      <c r="T31" s="145"/>
+      <c r="U31" s="145"/>
+      <c r="V31" s="145"/>
+      <c r="W31" s="145"/>
+      <c r="X31" s="145"/>
+    </row>
+    <row r="32" spans="2:24" ht="14.25">
+      <c r="N32" s="145"/>
+      <c r="O32" s="145"/>
+      <c r="P32" s="145"/>
+      <c r="Q32" s="145"/>
+      <c r="R32" s="145"/>
+      <c r="S32" s="145"/>
+      <c r="T32" s="145"/>
+      <c r="U32" s="145"/>
+      <c r="V32" s="145"/>
+      <c r="W32" s="145"/>
+      <c r="X32" s="145"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="41">
+    <mergeCell ref="N31:X31"/>
+    <mergeCell ref="N32:X32"/>
+    <mergeCell ref="N26:X26"/>
+    <mergeCell ref="N27:X27"/>
+    <mergeCell ref="N28:X28"/>
+    <mergeCell ref="N29:X29"/>
+    <mergeCell ref="N30:X30"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="R22:X22"/>
+    <mergeCell ref="N23:X23"/>
+    <mergeCell ref="N24:X24"/>
+    <mergeCell ref="N25:X25"/>
     <mergeCell ref="B16:L16"/>
     <mergeCell ref="B17:L17"/>
     <mergeCell ref="B18:L18"/>

--- a/吉田学園情報ビジネス専門学校_西潟栞那汰/03_履歴書/23_西潟栞那汰_履歴書.xlsx
+++ b/吉田学園情報ビジネス専門学校_西潟栞那汰/03_履歴書/23_西潟栞那汰_履歴書.xlsx
@@ -20,6 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'履歴書(裏)'!$B$2:$L$31</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -635,87 +636,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>そのため私は、制作する側になりたいと思い専門学校へ入学しました。</t>
-    <rPh sb="4" eb="5">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイサク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>学校ではC言語、C++言語を中心に学び、DirectXでのゲーム制作を行ってきました。</t>
-    <rPh sb="5" eb="7">
-      <t>ゲンゴ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ゲンゴ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>チュウシン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>マナ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>セイサク</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>また、チーム制作では、チームリーダーとしてメンバーを支え、メインプログラマー</t>
-    <rPh sb="6" eb="8">
-      <t>セイサク</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ササ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>として制作の土台を作成しました。</t>
-    <rPh sb="3" eb="5">
-      <t>セイサク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ドダイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>私は、感情や感動をゲームによって提供できるようなプログラマーになりたいと考えて</t>
-    <rPh sb="0" eb="1">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>いたため、貴社を志望しました。</t>
-    <rPh sb="5" eb="7">
-      <t>キシャ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シボウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>実際に貴社の「バイオハザードシリーズ」をプレイし、初めてゲームで恐怖という感情を</t>
     <rPh sb="0" eb="2">
       <t>ジッサイ</t>
@@ -750,6 +670,48 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>カンドウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>学校ではC言語、C++言語を中心に学び、DirectXでのゲーム制作を行ってきました。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>また、チーム制作では、チームリーダーとしてメンバーを支えたり、メインプログラマー</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>として制作の土台を作成し、メンバーが見やすいコードを書くことに力を入れました。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>個人制作では、何度でもやり直したくなるようなリプレイ要素を意識し、作りました。</t>
+    <rPh sb="26" eb="28">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イシキ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>なりたいと考えていたため、貴社を志望しました。</t>
+    <rPh sb="13" eb="15">
+      <t>キシャ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>私は、何度遊んでも楽しめるゲームで感情や感動を提供できるようなプログラマーに</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -1757,6 +1719,223 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1768,6 +1947,44 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -1780,18 +1997,6 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1816,247 +2021,79 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2112,81 +2149,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2513,22 +2475,22 @@
   <sheetData>
     <row r="1" spans="2:17" ht="13.5" customHeight="1"/>
     <row r="2" spans="2:17" ht="19.5" customHeight="1">
-      <c r="P2" s="81" t="s">
+      <c r="P2" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="17.100000000000001" customHeight="1">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="P3" s="82"/>
+      <c r="C3" s="34"/>
+      <c r="P3" s="32"/>
     </row>
     <row r="4" spans="2:17" ht="14.45" customHeight="1" thickBot="1">
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="16"/>
       <c r="J4" s="14" t="s">
         <v>13</v>
@@ -2541,136 +2503,136 @@
       <c r="N4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="82"/>
+      <c r="P4" s="32"/>
     </row>
     <row r="5" spans="2:17" ht="16.5" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="90"/>
-      <c r="P5" s="82"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="40"/>
+      <c r="P5" s="32"/>
     </row>
     <row r="6" spans="2:17" ht="13.5" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="93"/>
-      <c r="P6" s="82"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="43"/>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="2:17" ht="23.45" customHeight="1">
       <c r="B7" s="1"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="95"/>
-      <c r="P7" s="82"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="45"/>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="102">
+      <c r="C8" s="47"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="52">
         <v>1</v>
       </c>
-      <c r="F8" s="104" t="s">
+      <c r="F8" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="102">
+      <c r="G8" s="52">
         <v>6</v>
       </c>
-      <c r="H8" s="106" t="s">
+      <c r="H8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="104" t="s">
+      <c r="I8" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="109">
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="59">
         <v>20</v>
       </c>
-      <c r="M8" s="102" t="s">
+      <c r="M8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="110" t="s">
+      <c r="N8" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="82"/>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="2:17" ht="14.1" customHeight="1" thickBot="1">
-      <c r="B9" s="98"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="111"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="61"/>
     </row>
     <row r="10" spans="2:17" ht="16.5" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="77" t="s">
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="79"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="67"/>
     </row>
     <row r="11" spans="2:17" ht="16.5" customHeight="1">
       <c r="B11" s="3" t="s">
@@ -2679,90 +2641,90 @@
       <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="70" t="s">
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="72"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="74"/>
     </row>
     <row r="12" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="67" t="s">
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="63"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="79"/>
     </row>
     <row r="13" spans="2:17" ht="16.5" customHeight="1">
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="70" t="s">
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="72"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="74"/>
     </row>
     <row r="14" spans="2:17" ht="16.5" customHeight="1">
       <c r="B14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="67" t="s">
+      <c r="C14" s="82"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="63"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="79"/>
     </row>
     <row r="15" spans="2:17" ht="16.5" customHeight="1">
       <c r="B15" s="12" t="s">
@@ -2771,58 +2733,58 @@
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56" t="s">
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="60"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="86"/>
     </row>
     <row r="16" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B16" s="61"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="63"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="79"/>
     </row>
     <row r="17" spans="2:17" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="50"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="99"/>
     </row>
     <row r="18" spans="2:17" ht="12" customHeight="1" thickBot="1"/>
     <row r="19" spans="2:17" ht="15.95" customHeight="1">
@@ -2832,42 +2794,42 @@
       <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="53"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="102"/>
     </row>
     <row r="20" spans="2:17" ht="26.1" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="39"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="94"/>
     </row>
     <row r="21" spans="2:17" ht="26.1" customHeight="1">
       <c r="B21" s="9" t="s">
@@ -2876,22 +2838,22 @@
       <c r="C21" s="10">
         <v>4</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="33"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="91"/>
     </row>
     <row r="22" spans="2:17" ht="26.1" customHeight="1">
       <c r="B22" s="9" t="s">
@@ -2900,22 +2862,22 @@
       <c r="C22" s="10">
         <v>3</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="33"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="91"/>
     </row>
     <row r="23" spans="2:17" ht="26.1" customHeight="1">
       <c r="B23" s="9" t="s">
@@ -2948,118 +2910,118 @@
       <c r="C24" s="10">
         <v>3</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="33"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="91"/>
     </row>
     <row r="25" spans="2:17" ht="26.1" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="33"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="91"/>
     </row>
     <row r="26" spans="2:17" ht="26.1" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="39"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="94"/>
     </row>
     <row r="27" spans="2:17" ht="26.1" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="33"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="91"/>
     </row>
     <row r="28" spans="2:17" ht="26.1" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="33"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="91"/>
     </row>
     <row r="29" spans="2:17" ht="26.1" customHeight="1">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="39"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="94"/>
     </row>
     <row r="30" spans="2:17" ht="26.1" customHeight="1">
       <c r="B30" s="17" t="s">
@@ -3068,22 +3030,22 @@
       <c r="C30" s="10">
         <v>10</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="33"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="91"/>
     </row>
     <row r="31" spans="2:17" ht="26.1" customHeight="1">
       <c r="B31" s="18" t="s">
@@ -3092,22 +3054,22 @@
       <c r="C31" s="19">
         <v>10</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="42"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="107"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="107"/>
+      <c r="Q31" s="108"/>
     </row>
     <row r="32" spans="2:17" ht="26.1" customHeight="1">
       <c r="B32" s="9" t="s">
@@ -3116,22 +3078,22 @@
       <c r="C32" s="10">
         <v>5</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="45"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
+      <c r="N32" s="110"/>
+      <c r="O32" s="110"/>
+      <c r="P32" s="110"/>
+      <c r="Q32" s="111"/>
     </row>
     <row r="33" spans="2:17" ht="26.1" customHeight="1">
       <c r="B33" s="9" t="s">
@@ -3140,22 +3102,22 @@
       <c r="C33" s="10">
         <v>9</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="33"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="91"/>
     </row>
     <row r="34" spans="2:17" ht="26.1" customHeight="1">
       <c r="B34" s="9" t="s">
@@ -3164,22 +3126,22 @@
       <c r="C34" s="10">
         <v>2</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="33"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="90"/>
+      <c r="P34" s="90"/>
+      <c r="Q34" s="91"/>
     </row>
     <row r="35" spans="2:17" ht="26.1" customHeight="1" thickBot="1">
       <c r="B35" s="24" t="s">
@@ -3188,25 +3150,59 @@
       <c r="C35" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="36"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="104"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="104"/>
+      <c r="P35" s="104"/>
+      <c r="Q35" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="D33:Q33"/>
+    <mergeCell ref="D34:Q34"/>
+    <mergeCell ref="D35:Q35"/>
+    <mergeCell ref="D27:Q27"/>
+    <mergeCell ref="D28:Q28"/>
+    <mergeCell ref="D29:Q29"/>
+    <mergeCell ref="D30:Q30"/>
+    <mergeCell ref="D31:Q31"/>
+    <mergeCell ref="D32:Q32"/>
+    <mergeCell ref="D22:Q22"/>
+    <mergeCell ref="D24:Q24"/>
+    <mergeCell ref="D25:Q25"/>
+    <mergeCell ref="D26:Q26"/>
+    <mergeCell ref="B17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="D19:Q19"/>
+    <mergeCell ref="D20:Q20"/>
+    <mergeCell ref="D21:Q21"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="B16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="C13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="C14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="C10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="O11:Q11"/>
     <mergeCell ref="P2:P8"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="G4:H4"/>
@@ -3222,40 +3218,6 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
-    <mergeCell ref="C10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="B12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="C13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="C14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="D22:Q22"/>
-    <mergeCell ref="D24:Q24"/>
-    <mergeCell ref="D25:Q25"/>
-    <mergeCell ref="D26:Q26"/>
-    <mergeCell ref="B17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="D19:Q19"/>
-    <mergeCell ref="D20:Q20"/>
-    <mergeCell ref="D21:Q21"/>
-    <mergeCell ref="D33:Q33"/>
-    <mergeCell ref="D34:Q34"/>
-    <mergeCell ref="D35:Q35"/>
-    <mergeCell ref="D27:Q27"/>
-    <mergeCell ref="D28:Q28"/>
-    <mergeCell ref="D29:Q29"/>
-    <mergeCell ref="D30:Q30"/>
-    <mergeCell ref="D31:Q31"/>
-    <mergeCell ref="D32:Q32"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3269,8 +3231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3293,122 +3255,122 @@
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="129"/>
     </row>
     <row r="3" spans="2:12" ht="26.1" customHeight="1">
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="131"/>
     </row>
     <row r="4" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="131"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="121"/>
     </row>
     <row r="5" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="131"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="121"/>
     </row>
     <row r="6" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="131"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="121"/>
     </row>
     <row r="7" spans="2:12" s="23" customFormat="1" ht="26.1" customHeight="1">
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="131"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="121"/>
     </row>
     <row r="8" spans="2:12" ht="26.1" customHeight="1">
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="129" t="s">
+      <c r="D8" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="131"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="121"/>
     </row>
     <row r="9" spans="2:12" ht="26.1" customHeight="1" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="21"/>
-      <c r="D9" s="129" t="s">
+      <c r="D9" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="131"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="121"/>
     </row>
     <row r="10" spans="2:12" ht="12" customHeight="1" thickBot="1">
       <c r="B10" s="22"/>
@@ -3424,139 +3386,139 @@
       <c r="L10" s="22"/>
     </row>
     <row r="11" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="141"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="126"/>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="134"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="118"/>
     </row>
     <row r="13" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="131"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="121"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="134"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="118"/>
     </row>
     <row r="15" spans="2:12" ht="32.1" customHeight="1">
-      <c r="B15" s="135" t="s">
+      <c r="B15" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="131"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="121"/>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="134"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="118"/>
     </row>
     <row r="17" spans="2:24" ht="32.1" customHeight="1">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="131"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="121"/>
     </row>
     <row r="18" spans="2:24" ht="16.5" customHeight="1">
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="134"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="118"/>
     </row>
     <row r="19" spans="2:24" ht="32.1" customHeight="1" thickBot="1">
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="139"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="124"/>
     </row>
     <row r="20" spans="2:24" ht="12" customHeight="1" thickBot="1">
       <c r="B20" s="22"/>
@@ -3572,326 +3534,297 @@
       <c r="L20" s="22"/>
     </row>
     <row r="21" spans="2:24" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
       <c r="E21" s="29"/>
-      <c r="F21" s="120" t="s">
+      <c r="F21" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="122"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="142"/>
     </row>
     <row r="22" spans="2:24" ht="26.1" customHeight="1">
-      <c r="B22" s="123" t="s">
+      <c r="B22" s="143" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="145"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="114"/>
+      <c r="S22" s="115"/>
+      <c r="T22" s="115"/>
+      <c r="U22" s="115"/>
+      <c r="V22" s="115"/>
+      <c r="W22" s="115"/>
+      <c r="X22" s="115"/>
+    </row>
+    <row r="23" spans="2:24" ht="26.1" customHeight="1">
+      <c r="B23" s="132" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="134"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="112"/>
+      <c r="W23" s="112"/>
+      <c r="X23" s="112"/>
+    </row>
+    <row r="24" spans="2:24" s="23" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B24" s="132" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="133"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="134"/>
+      <c r="N24" s="112"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="112"/>
+      <c r="T24" s="112"/>
+      <c r="U24" s="112"/>
+      <c r="V24" s="112"/>
+      <c r="W24" s="112"/>
+      <c r="X24" s="112"/>
+    </row>
+    <row r="25" spans="2:24" s="23" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B25" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="133"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="134"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="112"/>
+      <c r="U25" s="112"/>
+      <c r="V25" s="112"/>
+      <c r="W25" s="112"/>
+      <c r="X25" s="112"/>
+    </row>
+    <row r="26" spans="2:24" ht="26.1" customHeight="1">
+      <c r="B26" s="132" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="134"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="112"/>
+      <c r="W26" s="112"/>
+      <c r="X26" s="112"/>
+    </row>
+    <row r="27" spans="2:24" ht="26.1" customHeight="1">
+      <c r="B27" s="132" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="133"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="134"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="112"/>
+      <c r="S27" s="112"/>
+      <c r="T27" s="112"/>
+      <c r="U27" s="112"/>
+      <c r="V27" s="112"/>
+      <c r="W27" s="112"/>
+      <c r="X27" s="112"/>
+    </row>
+    <row r="28" spans="2:24" s="23" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B28" s="132" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="133"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="133"/>
+      <c r="L28" s="134"/>
+      <c r="N28" s="112"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="112"/>
+      <c r="S28" s="112"/>
+      <c r="T28" s="112"/>
+      <c r="U28" s="112"/>
+      <c r="V28" s="112"/>
+      <c r="W28" s="112"/>
+      <c r="X28" s="112"/>
+    </row>
+    <row r="29" spans="2:24" ht="26.1" customHeight="1">
+      <c r="B29" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="125"/>
-      <c r="N22" s="142"/>
-      <c r="O22" s="142"/>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="143"/>
-      <c r="S22" s="144"/>
-      <c r="T22" s="144"/>
-      <c r="U22" s="144"/>
-      <c r="V22" s="144"/>
-      <c r="W22" s="144"/>
-      <c r="X22" s="144"/>
-    </row>
-    <row r="23" spans="2:24" ht="26.1" customHeight="1">
-      <c r="B23" s="112" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="114"/>
-      <c r="N23" s="145"/>
-      <c r="O23" s="145"/>
-      <c r="P23" s="145"/>
-      <c r="Q23" s="145"/>
-      <c r="R23" s="145"/>
-      <c r="S23" s="145"/>
-      <c r="T23" s="145"/>
-      <c r="U23" s="145"/>
-      <c r="V23" s="145"/>
-      <c r="W23" s="145"/>
-      <c r="X23" s="145"/>
-    </row>
-    <row r="24" spans="2:24" s="23" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B24" s="112" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="114"/>
-      <c r="N24" s="145"/>
-      <c r="O24" s="145"/>
-      <c r="P24" s="145"/>
-      <c r="Q24" s="145"/>
-      <c r="R24" s="145"/>
-      <c r="S24" s="145"/>
-      <c r="T24" s="145"/>
-      <c r="U24" s="145"/>
-      <c r="V24" s="145"/>
-      <c r="W24" s="145"/>
-      <c r="X24" s="145"/>
-    </row>
-    <row r="25" spans="2:24" s="23" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B25" s="112" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="114"/>
-      <c r="N25" s="145"/>
-      <c r="O25" s="145"/>
-      <c r="P25" s="145"/>
-      <c r="Q25" s="145"/>
-      <c r="R25" s="145"/>
-      <c r="S25" s="145"/>
-      <c r="T25" s="145"/>
-      <c r="U25" s="145"/>
-      <c r="V25" s="145"/>
-      <c r="W25" s="145"/>
-      <c r="X25" s="145"/>
-    </row>
-    <row r="26" spans="2:24" ht="26.1" customHeight="1">
-      <c r="B26" s="112" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="113"/>
-      <c r="L26" s="114"/>
-      <c r="N26" s="145"/>
-      <c r="O26" s="145"/>
-      <c r="P26" s="145"/>
-      <c r="Q26" s="145"/>
-      <c r="R26" s="145"/>
-      <c r="S26" s="145"/>
-      <c r="T26" s="145"/>
-      <c r="U26" s="145"/>
-      <c r="V26" s="145"/>
-      <c r="W26" s="145"/>
-      <c r="X26" s="145"/>
-    </row>
-    <row r="27" spans="2:24" ht="26.1" customHeight="1">
-      <c r="B27" s="112" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="114"/>
-      <c r="N27" s="145"/>
-      <c r="O27" s="145"/>
-      <c r="P27" s="145"/>
-      <c r="Q27" s="145"/>
-      <c r="R27" s="145"/>
-      <c r="S27" s="145"/>
-      <c r="T27" s="145"/>
-      <c r="U27" s="145"/>
-      <c r="V27" s="145"/>
-      <c r="W27" s="145"/>
-      <c r="X27" s="145"/>
-    </row>
-    <row r="28" spans="2:24" s="23" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B28" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="113"/>
-      <c r="L28" s="114"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="145"/>
-      <c r="P28" s="145"/>
-      <c r="Q28" s="145"/>
-      <c r="R28" s="145"/>
-      <c r="S28" s="145"/>
-      <c r="T28" s="145"/>
-      <c r="U28" s="145"/>
-      <c r="V28" s="145"/>
-      <c r="W28" s="145"/>
-      <c r="X28" s="145"/>
-    </row>
-    <row r="29" spans="2:24" ht="26.1" customHeight="1">
-      <c r="B29" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="114"/>
-      <c r="N29" s="145"/>
-      <c r="O29" s="145"/>
-      <c r="P29" s="145"/>
-      <c r="Q29" s="145"/>
-      <c r="R29" s="145"/>
-      <c r="S29" s="145"/>
-      <c r="T29" s="145"/>
-      <c r="U29" s="145"/>
-      <c r="V29" s="145"/>
-      <c r="W29" s="145"/>
-      <c r="X29" s="145"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="134"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="112"/>
+      <c r="R29" s="112"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="112"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="112"/>
+      <c r="W29" s="112"/>
+      <c r="X29" s="112"/>
     </row>
     <row r="30" spans="2:24" ht="26.1" customHeight="1">
-      <c r="B30" s="112" t="s">
+      <c r="B30" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="114"/>
-      <c r="N30" s="145"/>
-      <c r="O30" s="145"/>
-      <c r="P30" s="145"/>
-      <c r="Q30" s="145"/>
-      <c r="R30" s="145"/>
-      <c r="S30" s="145"/>
-      <c r="T30" s="145"/>
-      <c r="U30" s="145"/>
-      <c r="V30" s="145"/>
-      <c r="W30" s="145"/>
-      <c r="X30" s="145"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="133"/>
+      <c r="L30" s="134"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="112"/>
+      <c r="Q30" s="112"/>
+      <c r="R30" s="112"/>
+      <c r="S30" s="112"/>
+      <c r="T30" s="112"/>
+      <c r="U30" s="112"/>
+      <c r="V30" s="112"/>
+      <c r="W30" s="112"/>
+      <c r="X30" s="112"/>
     </row>
     <row r="31" spans="2:24" ht="26.1" customHeight="1" thickBot="1">
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="117"/>
-      <c r="N31" s="145"/>
-      <c r="O31" s="145"/>
-      <c r="P31" s="145"/>
-      <c r="Q31" s="145"/>
-      <c r="R31" s="145"/>
-      <c r="S31" s="145"/>
-      <c r="T31" s="145"/>
-      <c r="U31" s="145"/>
-      <c r="V31" s="145"/>
-      <c r="W31" s="145"/>
-      <c r="X31" s="145"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="137"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="112"/>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="112"/>
+      <c r="S31" s="112"/>
+      <c r="T31" s="112"/>
+      <c r="U31" s="112"/>
+      <c r="V31" s="112"/>
+      <c r="W31" s="112"/>
+      <c r="X31" s="112"/>
     </row>
     <row r="32" spans="2:24" ht="14.25">
-      <c r="N32" s="145"/>
-      <c r="O32" s="145"/>
-      <c r="P32" s="145"/>
-      <c r="Q32" s="145"/>
-      <c r="R32" s="145"/>
-      <c r="S32" s="145"/>
-      <c r="T32" s="145"/>
-      <c r="U32" s="145"/>
-      <c r="V32" s="145"/>
-      <c r="W32" s="145"/>
-      <c r="X32" s="145"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="112"/>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="112"/>
+      <c r="S32" s="112"/>
+      <c r="T32" s="112"/>
+      <c r="U32" s="112"/>
+      <c r="V32" s="112"/>
+      <c r="W32" s="112"/>
+      <c r="X32" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="N31:X31"/>
-    <mergeCell ref="N32:X32"/>
-    <mergeCell ref="N26:X26"/>
-    <mergeCell ref="N27:X27"/>
-    <mergeCell ref="N28:X28"/>
-    <mergeCell ref="N29:X29"/>
-    <mergeCell ref="N30:X30"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="R22:X22"/>
-    <mergeCell ref="N23:X23"/>
-    <mergeCell ref="N24:X24"/>
-    <mergeCell ref="N25:X25"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="D6:L6"/>
     <mergeCell ref="B29:L29"/>
     <mergeCell ref="B30:L30"/>
     <mergeCell ref="B31:L31"/>
@@ -3904,6 +3837,35 @@
     <mergeCell ref="B26:L26"/>
     <mergeCell ref="B27:L27"/>
     <mergeCell ref="B24:L24"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="R22:X22"/>
+    <mergeCell ref="N23:X23"/>
+    <mergeCell ref="N24:X24"/>
+    <mergeCell ref="N25:X25"/>
+    <mergeCell ref="N31:X31"/>
+    <mergeCell ref="N32:X32"/>
+    <mergeCell ref="N26:X26"/>
+    <mergeCell ref="N27:X27"/>
+    <mergeCell ref="N28:X28"/>
+    <mergeCell ref="N29:X29"/>
+    <mergeCell ref="N30:X30"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
